--- a/model/Dataset/receipt_highland/label_highland.xlsx
+++ b/model/Dataset/receipt_highland/label_highland.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="label_highland" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="label_highland" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="279">
   <si>
     <t>Dir</t>
   </si>
@@ -19,162 +19,699 @@
     <t>Label</t>
   </si>
   <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland1_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland1_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland1_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland2_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland2_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland2_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland3_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland3_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland3_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland4_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland4_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland4_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland5_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland5_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland5_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland6_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland6_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland6_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland7_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland7_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland7_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland8_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland8_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland8_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland9_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland9_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland9_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland10_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland10_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland10_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland11_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland11_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland11_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland12_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland12_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland12_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland13_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland13_2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland13_3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland29_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland28_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland27_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland26_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland25_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland24_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland23_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/highland22_1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220401.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220411.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220420.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220428.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220437.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220449.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220501.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220510.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220523.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220532.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220608.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220623.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220633.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/bhbhbhbhbhb.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/avbvvvvcsdaand21.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/njnjnjnjnjnjnjn.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d6_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d6_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d6_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d7_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d7_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d7_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d8_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d9_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g5_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g5_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g5_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g3_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g2_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g2_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g2_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g2_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g2_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g2_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g2_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g7_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g7_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g7_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g4_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g1_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g1_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g1_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g6_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g6_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g6_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g6_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g6_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g6_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/g6_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r1_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r1_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r8_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r8_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r8_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r8_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r8_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/r8_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/10_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/11_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/12_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/13_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_2datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_2datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_2datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/14_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_3datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_3datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_3datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_4datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_4datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/15_4datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d1_5datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d1_5datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d1_5datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d2_5datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d2_5datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d2_5datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d3_5datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d3_5datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d3_5datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_5datdatdata1.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_5datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d4_5datdatdata2.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_5datdatdata3.png</t>
+  </si>
+  <si>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/d5_5datdatdata2.png</t>
+  </si>
+  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland1.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland1_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland1_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland1_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland2.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland2_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland2_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland2_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland3.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland3_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland3_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland3_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland4.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland4_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland4_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland4_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland5.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland5_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland5_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland5_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland6.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland6_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland6_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland6_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland7.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland7_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland7_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland7_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland8.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland8_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland8_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland8_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland9.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland9_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland9_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland9_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland10.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland10_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland10_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland10_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland11.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland11_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland11_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland11_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland12.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland12_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland12_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland12_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland13.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland13_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland13_2.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland13_3.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland14.png</t>
   </si>
   <si>
@@ -247,9 +784,6 @@
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland37.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland38.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland39.png</t>
   </si>
   <si>
@@ -289,9 +823,6 @@
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland51.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland52.png</t>
-  </si>
-  <si>
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland53.png</t>
   </si>
   <si>
@@ -316,67 +847,7 @@
     <t>gdrive/MyDrive/Dataset/receipt_highland/highland60.png</t>
   </si>
   <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland29_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland28_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland27_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland26_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland25_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland24_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland23_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/highland22_1.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220401.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220411.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220420.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220428.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220437.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220449.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220501.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220510.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220523.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220532.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220608.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220623.png</t>
-  </si>
-  <si>
-    <t>gdrive/MyDrive/Dataset/receipt_highland/Screenshot 2021-12-05 220633.png</t>
+    <t>gdrive/MyDrive/Dataset/receipt_highland/vvvvvvvvvv.png</t>
   </si>
 </sst>
 </file>
@@ -389,7 +860,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,12 +879,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,6 +907,200 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4285F4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="EA4335"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="FBBC04"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="34A853"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="FF6D01"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="46BDC6"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="1155CC"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="1155CC"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -433,9 +1110,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="59.43"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="s">
@@ -446,1324 +1120,5676 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
+      <c r="C2" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
+      <c r="C6" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
+      <c r="C10" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
+      <c r="C14" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14.0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15.0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16.0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
+      <c r="C18" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17.0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18.0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19.0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20.0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
-        <v>1.0</v>
+      <c r="C22" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21.0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22.0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23.0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24.0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1">
-        <v>1.0</v>
+      <c r="C26" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25.0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26.0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27.0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28.0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1">
-        <v>1.0</v>
+      <c r="C30" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29.0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="1">
-        <v>1.0</v>
+      <c r="C34" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1">
-        <v>1.0</v>
+      <c r="C38" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39.0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40.0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="1">
-        <v>1.0</v>
+      <c r="C42" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41.0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42.0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43.0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44.0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1">
-        <v>1.0</v>
+      <c r="C46" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45.0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46.0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47.0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48.0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="1">
-        <v>1.0</v>
+      <c r="C50" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49.0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>50.0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>51.0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>52.0</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="1">
-        <v>1.0</v>
+      <c r="C54" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>53.0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="1">
-        <v>1.0</v>
+      <c r="C55" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>54.0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="1">
-        <v>1.0</v>
+      <c r="C56" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>55.0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="1">
-        <v>1.0</v>
+      <c r="C57" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>56.0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="1">
-        <v>1.0</v>
+      <c r="C58" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>57.0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="1">
-        <v>1.0</v>
+      <c r="C59" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>58.0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="1">
-        <v>1.0</v>
+      <c r="C60" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>59.0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="1">
-        <v>1.0</v>
+      <c r="C61" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>60.0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="1">
-        <v>1.0</v>
+      <c r="C62" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>61.0</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="1">
-        <v>1.0</v>
+      <c r="C63" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>62.0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="1">
-        <v>1.0</v>
+      <c r="C64" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>63.0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="1">
-        <v>1.0</v>
+      <c r="C65" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>64.0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="1">
-        <v>1.0</v>
+      <c r="C66" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>65.0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="1">
-        <v>1.0</v>
+      <c r="C67" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>66.0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="1">
-        <v>1.0</v>
+      <c r="C68" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>67.0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="1">
-        <v>1.0</v>
+      <c r="C69" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>68.0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="1">
-        <v>1.0</v>
+      <c r="C70" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>69.0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="1">
-        <v>1.0</v>
+      <c r="C71" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>70.0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="1">
-        <v>1.0</v>
+      <c r="C72" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>71.0</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="1">
-        <v>1.0</v>
+      <c r="C73" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>72.0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="1">
-        <v>1.0</v>
+      <c r="C74" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>73.0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="1">
-        <v>1.0</v>
+      <c r="C75" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>74.0</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="1">
-        <v>1.0</v>
+      <c r="C76" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>75.0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="1">
-        <v>1.0</v>
+      <c r="C77" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>76.0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="1">
-        <v>1.0</v>
+      <c r="C78" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>77.0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="1">
-        <v>1.0</v>
+      <c r="C79" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>78.0</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="1">
-        <v>1.0</v>
+      <c r="C80" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>79.0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="1">
-        <v>1.0</v>
+      <c r="C81" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>80.0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="1">
-        <v>1.0</v>
+      <c r="C82" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>81.0</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="1">
-        <v>1.0</v>
+      <c r="C83" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>82.0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="1">
-        <v>1.0</v>
+      <c r="C84" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>83.0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="1">
-        <v>1.0</v>
+      <c r="C85" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>84.0</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="1">
-        <v>1.0</v>
+      <c r="C86" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>85.0</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="1">
-        <v>1.0</v>
+      <c r="C87" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>86.0</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="1">
-        <v>1.0</v>
+      <c r="C88" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>87.0</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="1">
-        <v>1.0</v>
+      <c r="C89" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>88.0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="1">
-        <v>1.0</v>
+      <c r="C90" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>89.0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="1">
-        <v>1.0</v>
+      <c r="C91" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>90.0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="1">
-        <v>1.0</v>
+      <c r="C92" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>91.0</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="1">
-        <v>1.0</v>
+      <c r="C93" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>92.0</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="1">
-        <v>1.0</v>
+      <c r="C94" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>93.0</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="1">
-        <v>1.0</v>
+      <c r="C95" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>94.0</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="1">
-        <v>1.0</v>
+      <c r="C96" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>95.0</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="1">
-        <v>1.0</v>
+      <c r="C97" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>96.0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="1">
-        <v>1.0</v>
+      <c r="C98" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>97.0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="1">
-        <v>1.0</v>
+      <c r="C99" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>98.0</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="1">
-        <v>1.0</v>
+      <c r="C100" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>99.0</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>100.0</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>101.0</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>102.0</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>103.0</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>104.0</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>105.0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>106.0</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>107.0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>108.0</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>109.0</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>110.0</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>111.0</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>112.0</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>113.0</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>114.0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>115.0</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>116.0</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>117.0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>118.0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="3">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>119.0</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="C121" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>121.0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>122.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>124.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>125.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>126.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>127.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>128.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>129.0</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>130.0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>131.0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>132.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>133.0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>136.0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>138.0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>139.0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>140.0</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>141.0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>142.0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>143.0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>144.0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>145.0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>146.0</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>147.0</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>148.0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>149.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>150.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>151.0</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>152.0</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>153.0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>154.0</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>155.0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>156.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>157.0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>158.0</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>160.0</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>161.0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>162.0</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>163.0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>165.0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>166.0</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>167.0</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>168.0</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>169.0</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>170.0</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>171.0</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>172.0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>173.0</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>174.0</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>175.0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>176.0</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>177.0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>178.0</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>179.0</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>180.0</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>183.0</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>185.0</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>187.0</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>188.0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>190.0</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C192" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>191.0</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>192.0</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>193.0</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C195" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>194.0</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>195.0</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>196.0</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C198" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>197.0</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>198.0</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>199.0</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C202" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>201.0</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>202.0</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>203.0</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>204.0</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>205.0</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>206.0</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>207.0</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>208.0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C210" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>209.0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C211" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C212" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>211.0</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>212.0</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>213.0</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>214.0</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>215.0</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C217" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>216.0</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C218" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>217.0</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>218.0</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>219.0</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C221" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>220.0</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>221.0</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C223" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>222.0</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C224" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>223.0</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>224.0</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>225.0</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C227" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>226.0</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>227.0</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C229" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>228.0</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C230" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>229.0</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>230.0</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C232" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>231.0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>232.0</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>233.0</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C236" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>235.0</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>236.0</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C238" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>237.0</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>238.0</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C240" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>239.0</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>240.0</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C242" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>241.0</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>242.0</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C244" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>243.0</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C245" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>244.0</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C246" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>245.0</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C247" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>246.0</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C248" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>247.0</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>248.0</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C250" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>249.0</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C251" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>250.0</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C252" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>251.0</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C253" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>252.0</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>253.0</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>254.0</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C256" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>255.0</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C257" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>256.0</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C258" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>257.0</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C259" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>258.0</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C260" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>259.0</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C261" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>260.0</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C262" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>261.0</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C263" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>262.0</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C264" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>263.0</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C265" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>264.0</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C266" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>265.0</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C267" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C268" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>267.0</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C269" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>268.0</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C270" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>269.0</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C271" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>270.0</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C272" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>271.0</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C273" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>272.0</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C274" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>273.0</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C275" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>274.0</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C276" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>275.0</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>276.0</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C278" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>277.0</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C279" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>278.0</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C280" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>279.0</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C281" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>280.0</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C282" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>281.0</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C283" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>282.0</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C284" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>283.0</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C285" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C286" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>285.0</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C287" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>286.0</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C288" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>287.0</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C289" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>288.0</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C290" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>289.0</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C291" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>290.0</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C292" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C293" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>292.0</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C294" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>293.0</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C295" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>294.0</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C296" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>295.0</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C297" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>296.0</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C298" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>297.0</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C299" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>298.0</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C300" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>299.0</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C301" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C302" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>301.0</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C303" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>302.0</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C304" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>303.0</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C305" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>304.0</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C306" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>305.0</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C307" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>306.0</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C308" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>307.0</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C309" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>308.0</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C310" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>309.0</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C311" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>310.0</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C312" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>311.0</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C313" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>312.0</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C314" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>313.0</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C315" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>314.0</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C316" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>315.0</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C317" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>316.0</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C318" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>317.0</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C319" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>318.0</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C320" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>319.0</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C321" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>320.0</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C322" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>321.0</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C323" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>322.0</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C324" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>323.0</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C325" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>324.0</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C326" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>325.0</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C327" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>326.0</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C328" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>327.0</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C329" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>328.0</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C330" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>329.0</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C331" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>330.0</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C332" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>331.0</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C333" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>332.0</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C334" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>333.0</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C335" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>334.0</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C336" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>335.0</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C337" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="1"/>
+      <c r="C571" s="1"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="1"/>
+      <c r="C573" s="1"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="1"/>
+      <c r="C581" s="1"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="1"/>
+      <c r="C582" s="1"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="1"/>
+      <c r="C584" s="1"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="1"/>
+      <c r="C585" s="1"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="1"/>
+      <c r="C586" s="1"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="1"/>
+      <c r="C587" s="1"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="1"/>
+      <c r="C601" s="1"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="1"/>
+      <c r="C602" s="1"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="1"/>
+      <c r="C603" s="1"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="1"/>
+      <c r="C604" s="1"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="1"/>
+      <c r="C605" s="1"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="1"/>
+      <c r="C606" s="1"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="1"/>
+      <c r="C607" s="1"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="1"/>
+      <c r="C608" s="1"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="1"/>
+      <c r="C609" s="1"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="1"/>
+      <c r="C611" s="1"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="1"/>
+      <c r="C612" s="1"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="1"/>
+      <c r="C613" s="1"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="1"/>
+      <c r="C614" s="1"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="1"/>
+      <c r="C615" s="1"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="1"/>
+      <c r="C616" s="1"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="1"/>
+      <c r="C617" s="1"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="1"/>
+      <c r="C618" s="1"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="1"/>
+      <c r="C619" s="1"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="1"/>
+      <c r="C620" s="1"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="1"/>
+      <c r="C621" s="1"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="1"/>
+      <c r="C622" s="1"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="1"/>
+      <c r="C623" s="1"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="1"/>
+      <c r="C624" s="1"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="1"/>
+      <c r="C625" s="1"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="1"/>
+      <c r="C626" s="1"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="1"/>
+      <c r="C627" s="1"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="1"/>
+      <c r="C628" s="1"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="1"/>
+      <c r="C629" s="1"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="1"/>
+      <c r="C630" s="1"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="1"/>
+      <c r="C631" s="1"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="1"/>
+      <c r="C632" s="1"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="1"/>
+      <c r="C633" s="1"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="1"/>
+      <c r="C634" s="1"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="1"/>
+      <c r="C635" s="1"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="1"/>
+      <c r="C636" s="1"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="1"/>
+      <c r="C637" s="1"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="1"/>
+      <c r="C638" s="1"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="1"/>
+      <c r="C639" s="1"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="1"/>
+      <c r="C640" s="1"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="1"/>
+      <c r="C641" s="1"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="1"/>
+      <c r="C642" s="1"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="1"/>
+      <c r="C643" s="1"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="1"/>
+      <c r="C644" s="1"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="1"/>
+      <c r="C645" s="1"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="1"/>
+      <c r="C646" s="1"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="1"/>
+      <c r="C647" s="1"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="1"/>
+      <c r="C648" s="1"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="1"/>
+      <c r="C649" s="1"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="1"/>
+      <c r="C650" s="1"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="1"/>
+      <c r="C651" s="1"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="1"/>
+      <c r="C652" s="1"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="1"/>
+      <c r="C653" s="1"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="1"/>
+      <c r="C654" s="1"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="1"/>
+      <c r="C655" s="1"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="1"/>
+      <c r="C656" s="1"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="1"/>
+      <c r="C657" s="1"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="1"/>
+      <c r="C658" s="1"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="1"/>
+      <c r="C659" s="1"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="1"/>
+      <c r="C660" s="1"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="1"/>
+      <c r="C661" s="1"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="1"/>
+      <c r="C662" s="1"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="1"/>
+      <c r="C663" s="1"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="1"/>
+      <c r="C664" s="1"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="1"/>
+      <c r="C665" s="1"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="1"/>
+      <c r="C666" s="1"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="1"/>
+      <c r="C667" s="1"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="1"/>
+      <c r="C668" s="1"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="1"/>
+      <c r="C669" s="1"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="1"/>
+      <c r="C670" s="1"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="1"/>
+      <c r="C671" s="1"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="1"/>
+      <c r="C672" s="1"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="1"/>
+      <c r="C673" s="1"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="1"/>
+      <c r="C674" s="1"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="1"/>
+      <c r="C675" s="1"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="1"/>
+      <c r="C676" s="1"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="1"/>
+      <c r="C677" s="1"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="1"/>
+      <c r="C678" s="1"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="1"/>
+      <c r="C679" s="1"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="1"/>
+      <c r="C680" s="1"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="1"/>
+      <c r="C681" s="1"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="1"/>
+      <c r="C682" s="1"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="4"/>
+      <c r="C683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="4"/>
+      <c r="C684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="4"/>
+      <c r="C685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="4"/>
+      <c r="C686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="4"/>
+      <c r="C687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="4"/>
+      <c r="C688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="4"/>
+      <c r="C689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="4"/>
+      <c r="C690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="4"/>
+      <c r="C691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="4"/>
+      <c r="C692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="4"/>
+      <c r="C693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="4"/>
+      <c r="C694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="4"/>
+      <c r="C695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="4"/>
+      <c r="C696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="4"/>
+      <c r="C697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="4"/>
+      <c r="C698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="4"/>
+      <c r="C699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="4"/>
+      <c r="C700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="4"/>
+      <c r="C701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="4"/>
+      <c r="C702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="4"/>
+      <c r="C703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="4"/>
+      <c r="C704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="4"/>
+      <c r="C705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="4"/>
+      <c r="C706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="4"/>
+      <c r="C707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="4"/>
+      <c r="C708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="4"/>
+      <c r="C709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="4"/>
+      <c r="C710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="4"/>
+      <c r="C711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="4"/>
+      <c r="C712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="4"/>
+      <c r="C713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="4"/>
+      <c r="C714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="4"/>
+      <c r="C715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="4"/>
+      <c r="C716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="4"/>
+      <c r="C717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="4"/>
+      <c r="C718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="4"/>
+      <c r="C719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="4"/>
+      <c r="C720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="4"/>
+      <c r="C721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="4"/>
+      <c r="C722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="4"/>
+      <c r="C723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="4"/>
+      <c r="C724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="4"/>
+      <c r="C725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="4"/>
+      <c r="C726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="4"/>
+      <c r="C727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="4"/>
+      <c r="C728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="4"/>
+      <c r="C729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="4"/>
+      <c r="C730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="4"/>
+      <c r="C731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="4"/>
+      <c r="C732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="4"/>
+      <c r="C733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="4"/>
+      <c r="C734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="4"/>
+      <c r="C735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="4"/>
+      <c r="C736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="4"/>
+      <c r="C737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="4"/>
+      <c r="C738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="4"/>
+      <c r="C739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="4"/>
+      <c r="C740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="4"/>
+      <c r="C741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="4"/>
+      <c r="C742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="4"/>
+      <c r="C743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="4"/>
+      <c r="C744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="4"/>
+      <c r="C745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="4"/>
+      <c r="C746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="4"/>
+      <c r="C747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="4"/>
+      <c r="C748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="4"/>
+      <c r="C749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="4"/>
+      <c r="C750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="4"/>
+      <c r="C751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="4"/>
+      <c r="C752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="4"/>
+      <c r="C753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="4"/>
+      <c r="C754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="4"/>
+      <c r="C755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="4"/>
+      <c r="C756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="4"/>
+      <c r="C757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="4"/>
+      <c r="C758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="4"/>
+      <c r="C759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="4"/>
+      <c r="C760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="4"/>
+      <c r="C761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="4"/>
+      <c r="C762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="4"/>
+      <c r="C763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="4"/>
+      <c r="C764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="4"/>
+      <c r="C765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="4"/>
+      <c r="C766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="4"/>
+      <c r="C767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="4"/>
+      <c r="C768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="4"/>
+      <c r="C769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="4"/>
+      <c r="C770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="4"/>
+      <c r="C771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="4"/>
+      <c r="C772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="4"/>
+      <c r="C773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="4"/>
+      <c r="C774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="4"/>
+      <c r="C775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="4"/>
+      <c r="C776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="4"/>
+      <c r="C777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="4"/>
+      <c r="C778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="4"/>
+      <c r="C779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="4"/>
+      <c r="C780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="4"/>
+      <c r="C781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="4"/>
+      <c r="C782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="4"/>
+      <c r="C783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="4"/>
+      <c r="C784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="4"/>
+      <c r="C785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="4"/>
+      <c r="C786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="4"/>
+      <c r="C787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="4"/>
+      <c r="C788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="4"/>
+      <c r="C789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="4"/>
+      <c r="C790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="4"/>
+      <c r="C791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="4"/>
+      <c r="C792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="4"/>
+      <c r="C793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="4"/>
+      <c r="C794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="4"/>
+      <c r="C795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="4"/>
+      <c r="C796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="4"/>
+      <c r="C797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="4"/>
+      <c r="C798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="4"/>
+      <c r="C799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="4"/>
+      <c r="C800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="4"/>
+      <c r="C801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="4"/>
+      <c r="C802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="4"/>
+      <c r="C803" s="4"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="4"/>
+      <c r="C804" s="4"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="4"/>
+      <c r="C805" s="4"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="4"/>
+      <c r="C806" s="4"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="4"/>
+      <c r="C807" s="4"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="4"/>
+      <c r="C808" s="4"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="4"/>
+      <c r="C809" s="4"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="4"/>
+      <c r="C810" s="4"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="4"/>
+      <c r="C811" s="4"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="4"/>
+      <c r="C812" s="4"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="4"/>
+      <c r="C813" s="4"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="4"/>
+      <c r="C814" s="4"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="4"/>
+      <c r="C815" s="4"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="4"/>
+      <c r="C816" s="4"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="4"/>
+      <c r="C817" s="4"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="4"/>
+      <c r="C818" s="4"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="4"/>
+      <c r="C819" s="4"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="4"/>
+      <c r="C820" s="4"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="4"/>
+      <c r="C821" s="4"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="4"/>
+      <c r="C822" s="4"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="4"/>
+      <c r="C823" s="4"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="4"/>
+      <c r="C824" s="4"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="4"/>
+      <c r="C825" s="4"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="4"/>
+      <c r="C826" s="4"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="4"/>
+      <c r="C827" s="4"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="4"/>
+      <c r="C828" s="4"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="4"/>
+      <c r="C829" s="4"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="4"/>
+      <c r="C830" s="4"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="4"/>
+      <c r="C831" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
